--- a/series_02/mpi_0/the_rest/qsmf_output.xlsx
+++ b/series_02/mpi_0/the_rest/qsmf_output.xlsx
@@ -1833,7 +1833,7 @@
         <v>-6</v>
       </c>
       <c r="B50">
-        <v>4.861000000000002</v>
+        <v>4.861000000000001</v>
       </c>
       <c r="C50">
         <v>30</v>
@@ -3312,7 +3312,7 @@
         <v>-3</v>
       </c>
       <c r="B101">
-        <v>6.252000000000002</v>
+        <v>6.252000000000001</v>
       </c>
       <c r="C101">
         <v>60</v>
@@ -4369,7 +4369,7 @@
         <v>-4</v>
       </c>
       <c r="B4">
-        <v>6.252000000000002</v>
+        <v>6.252000000000001</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -6341,7 +6341,7 @@
         <v>4</v>
       </c>
       <c r="B72">
-        <v>5.178999999999998</v>
+        <v>5.178999999999999</v>
       </c>
       <c r="C72">
         <v>40</v>

--- a/series_02/mpi_0/the_rest/qsmf_output.xlsx
+++ b/series_02/mpi_0/the_rest/qsmf_output.xlsx
@@ -12707,7 +12707,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I117"/>
+  <dimension ref="A1:I193"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16106,6 +16106,2210 @@
         <v>0.158</v>
       </c>
     </row>
+    <row r="118" spans="1:9">
+      <c r="A118">
+        <v>7</v>
+      </c>
+      <c r="B118">
+        <v>2.9799</v>
+      </c>
+      <c r="C118">
+        <v>90</v>
+      </c>
+      <c r="D118">
+        <v>150</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>250</v>
+      </c>
+      <c r="G118">
+        <v>112</v>
+      </c>
+      <c r="H118">
+        <v>0.16</v>
+      </c>
+      <c r="I118">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119">
+        <v>8</v>
+      </c>
+      <c r="B119">
+        <v>1.8179</v>
+      </c>
+      <c r="C119">
+        <v>90</v>
+      </c>
+      <c r="D119">
+        <v>150</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>250</v>
+      </c>
+      <c r="G119">
+        <v>112</v>
+      </c>
+      <c r="H119">
+        <v>0.16</v>
+      </c>
+      <c r="I119">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120">
+        <v>9</v>
+      </c>
+      <c r="B120">
+        <v>-1.3072</v>
+      </c>
+      <c r="C120">
+        <v>90</v>
+      </c>
+      <c r="D120">
+        <v>150</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>250</v>
+      </c>
+      <c r="G120">
+        <v>112</v>
+      </c>
+      <c r="H120">
+        <v>0.16</v>
+      </c>
+      <c r="I120">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121">
+        <v>10</v>
+      </c>
+      <c r="B121">
+        <v>-4.15</v>
+      </c>
+      <c r="C121">
+        <v>90</v>
+      </c>
+      <c r="D121">
+        <v>150</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>250</v>
+      </c>
+      <c r="G121">
+        <v>112</v>
+      </c>
+      <c r="H121">
+        <v>0.16</v>
+      </c>
+      <c r="I121">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122">
+        <v>-1</v>
+      </c>
+      <c r="B122">
+        <v>1.6351</v>
+      </c>
+      <c r="C122">
+        <v>100</v>
+      </c>
+      <c r="D122">
+        <v>150</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>250</v>
+      </c>
+      <c r="G122">
+        <v>112</v>
+      </c>
+      <c r="H122">
+        <v>0.16</v>
+      </c>
+      <c r="I122">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123">
+        <v>0</v>
+      </c>
+      <c r="B123">
+        <v>2.4182</v>
+      </c>
+      <c r="C123">
+        <v>100</v>
+      </c>
+      <c r="D123">
+        <v>150</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>250</v>
+      </c>
+      <c r="G123">
+        <v>112</v>
+      </c>
+      <c r="H123">
+        <v>0.16</v>
+      </c>
+      <c r="I123">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124">
+        <v>1</v>
+      </c>
+      <c r="B124">
+        <v>3.2255</v>
+      </c>
+      <c r="C124">
+        <v>100</v>
+      </c>
+      <c r="D124">
+        <v>150</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>250</v>
+      </c>
+      <c r="G124">
+        <v>112</v>
+      </c>
+      <c r="H124">
+        <v>0.16</v>
+      </c>
+      <c r="I124">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125">
+        <v>2</v>
+      </c>
+      <c r="B125">
+        <v>3.7452</v>
+      </c>
+      <c r="C125">
+        <v>100</v>
+      </c>
+      <c r="D125">
+        <v>150</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>250</v>
+      </c>
+      <c r="G125">
+        <v>112</v>
+      </c>
+      <c r="H125">
+        <v>0.16</v>
+      </c>
+      <c r="I125">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126">
+        <v>3</v>
+      </c>
+      <c r="B126">
+        <v>4.2715</v>
+      </c>
+      <c r="C126">
+        <v>100</v>
+      </c>
+      <c r="D126">
+        <v>150</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>250</v>
+      </c>
+      <c r="G126">
+        <v>112</v>
+      </c>
+      <c r="H126">
+        <v>0.16</v>
+      </c>
+      <c r="I126">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127">
+        <v>4</v>
+      </c>
+      <c r="B127">
+        <v>4.6909</v>
+      </c>
+      <c r="C127">
+        <v>100</v>
+      </c>
+      <c r="D127">
+        <v>150</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>250</v>
+      </c>
+      <c r="G127">
+        <v>112</v>
+      </c>
+      <c r="H127">
+        <v>0.16</v>
+      </c>
+      <c r="I127">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128">
+        <v>5</v>
+      </c>
+      <c r="B128">
+        <v>4.6016</v>
+      </c>
+      <c r="C128">
+        <v>100</v>
+      </c>
+      <c r="D128">
+        <v>150</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>250</v>
+      </c>
+      <c r="G128">
+        <v>112</v>
+      </c>
+      <c r="H128">
+        <v>0.16</v>
+      </c>
+      <c r="I128">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129">
+        <v>6</v>
+      </c>
+      <c r="B129">
+        <v>4.1441</v>
+      </c>
+      <c r="C129">
+        <v>100</v>
+      </c>
+      <c r="D129">
+        <v>150</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>250</v>
+      </c>
+      <c r="G129">
+        <v>112</v>
+      </c>
+      <c r="H129">
+        <v>0.16</v>
+      </c>
+      <c r="I129">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130">
+        <v>7</v>
+      </c>
+      <c r="B130">
+        <v>3.2323</v>
+      </c>
+      <c r="C130">
+        <v>100</v>
+      </c>
+      <c r="D130">
+        <v>150</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>250</v>
+      </c>
+      <c r="G130">
+        <v>112</v>
+      </c>
+      <c r="H130">
+        <v>0.16</v>
+      </c>
+      <c r="I130">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131">
+        <v>8</v>
+      </c>
+      <c r="B131">
+        <v>1.6755</v>
+      </c>
+      <c r="C131">
+        <v>100</v>
+      </c>
+      <c r="D131">
+        <v>150</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>250</v>
+      </c>
+      <c r="G131">
+        <v>112</v>
+      </c>
+      <c r="H131">
+        <v>0.16</v>
+      </c>
+      <c r="I131">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132">
+        <v>9</v>
+      </c>
+      <c r="B132">
+        <v>-0.46735</v>
+      </c>
+      <c r="C132">
+        <v>100</v>
+      </c>
+      <c r="D132">
+        <v>150</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>250</v>
+      </c>
+      <c r="G132">
+        <v>112</v>
+      </c>
+      <c r="H132">
+        <v>0.16</v>
+      </c>
+      <c r="I132">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133">
+        <v>10</v>
+      </c>
+      <c r="B133">
+        <v>-2.8922</v>
+      </c>
+      <c r="C133">
+        <v>100</v>
+      </c>
+      <c r="D133">
+        <v>150</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>250</v>
+      </c>
+      <c r="G133">
+        <v>112</v>
+      </c>
+      <c r="H133">
+        <v>0.16</v>
+      </c>
+      <c r="I133">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134">
+        <v>-1</v>
+      </c>
+      <c r="B134">
+        <v>1.6445</v>
+      </c>
+      <c r="C134">
+        <v>110</v>
+      </c>
+      <c r="D134">
+        <v>150</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>250</v>
+      </c>
+      <c r="G134">
+        <v>112</v>
+      </c>
+      <c r="H134">
+        <v>0.16</v>
+      </c>
+      <c r="I134">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135">
+        <v>0</v>
+      </c>
+      <c r="B135">
+        <v>2.3866</v>
+      </c>
+      <c r="C135">
+        <v>110</v>
+      </c>
+      <c r="D135">
+        <v>150</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>250</v>
+      </c>
+      <c r="G135">
+        <v>112</v>
+      </c>
+      <c r="H135">
+        <v>0.16</v>
+      </c>
+      <c r="I135">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136">
+        <v>1</v>
+      </c>
+      <c r="B136">
+        <v>3.0554</v>
+      </c>
+      <c r="C136">
+        <v>110</v>
+      </c>
+      <c r="D136">
+        <v>150</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>250</v>
+      </c>
+      <c r="G136">
+        <v>112</v>
+      </c>
+      <c r="H136">
+        <v>0.16</v>
+      </c>
+      <c r="I136">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137">
+        <v>2</v>
+      </c>
+      <c r="B137">
+        <v>3.7038</v>
+      </c>
+      <c r="C137">
+        <v>110</v>
+      </c>
+      <c r="D137">
+        <v>150</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>250</v>
+      </c>
+      <c r="G137">
+        <v>112</v>
+      </c>
+      <c r="H137">
+        <v>0.16</v>
+      </c>
+      <c r="I137">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138">
+        <v>3</v>
+      </c>
+      <c r="B138">
+        <v>4.2975</v>
+      </c>
+      <c r="C138">
+        <v>110</v>
+      </c>
+      <c r="D138">
+        <v>150</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>250</v>
+      </c>
+      <c r="G138">
+        <v>112</v>
+      </c>
+      <c r="H138">
+        <v>0.16</v>
+      </c>
+      <c r="I138">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139">
+        <v>4</v>
+      </c>
+      <c r="B139">
+        <v>4.471</v>
+      </c>
+      <c r="C139">
+        <v>110</v>
+      </c>
+      <c r="D139">
+        <v>150</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>250</v>
+      </c>
+      <c r="G139">
+        <v>112</v>
+      </c>
+      <c r="H139">
+        <v>0.16</v>
+      </c>
+      <c r="I139">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140">
+        <v>5</v>
+      </c>
+      <c r="B140">
+        <v>4.5914</v>
+      </c>
+      <c r="C140">
+        <v>110</v>
+      </c>
+      <c r="D140">
+        <v>150</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>250</v>
+      </c>
+      <c r="G140">
+        <v>112</v>
+      </c>
+      <c r="H140">
+        <v>0.16</v>
+      </c>
+      <c r="I140">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141">
+        <v>6</v>
+      </c>
+      <c r="B141">
+        <v>3.8506</v>
+      </c>
+      <c r="C141">
+        <v>110</v>
+      </c>
+      <c r="D141">
+        <v>150</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>250</v>
+      </c>
+      <c r="G141">
+        <v>112</v>
+      </c>
+      <c r="H141">
+        <v>0.16</v>
+      </c>
+      <c r="I141">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142">
+        <v>7</v>
+      </c>
+      <c r="B142">
+        <v>2.7014</v>
+      </c>
+      <c r="C142">
+        <v>110</v>
+      </c>
+      <c r="D142">
+        <v>150</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>250</v>
+      </c>
+      <c r="G142">
+        <v>112</v>
+      </c>
+      <c r="H142">
+        <v>0.16</v>
+      </c>
+      <c r="I142">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143">
+        <v>8</v>
+      </c>
+      <c r="B143">
+        <v>1.4179</v>
+      </c>
+      <c r="C143">
+        <v>110</v>
+      </c>
+      <c r="D143">
+        <v>150</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>250</v>
+      </c>
+      <c r="G143">
+        <v>112</v>
+      </c>
+      <c r="H143">
+        <v>0.16</v>
+      </c>
+      <c r="I143">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144">
+        <v>9</v>
+      </c>
+      <c r="B144">
+        <v>-0.78757</v>
+      </c>
+      <c r="C144">
+        <v>110</v>
+      </c>
+      <c r="D144">
+        <v>150</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>250</v>
+      </c>
+      <c r="G144">
+        <v>112</v>
+      </c>
+      <c r="H144">
+        <v>0.16</v>
+      </c>
+      <c r="I144">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145">
+        <v>10</v>
+      </c>
+      <c r="B145">
+        <v>-2.4289</v>
+      </c>
+      <c r="C145">
+        <v>110</v>
+      </c>
+      <c r="D145">
+        <v>150</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>250</v>
+      </c>
+      <c r="G145">
+        <v>112</v>
+      </c>
+      <c r="H145">
+        <v>0.16</v>
+      </c>
+      <c r="I145">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146">
+        <v>-1</v>
+      </c>
+      <c r="B146">
+        <v>1.5975</v>
+      </c>
+      <c r="C146">
+        <v>120</v>
+      </c>
+      <c r="D146">
+        <v>150</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>250</v>
+      </c>
+      <c r="G146">
+        <v>112</v>
+      </c>
+      <c r="H146">
+        <v>0.16</v>
+      </c>
+      <c r="I146">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147">
+        <v>0</v>
+      </c>
+      <c r="B147">
+        <v>2.2928</v>
+      </c>
+      <c r="C147">
+        <v>120</v>
+      </c>
+      <c r="D147">
+        <v>150</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>250</v>
+      </c>
+      <c r="G147">
+        <v>112</v>
+      </c>
+      <c r="H147">
+        <v>0.16</v>
+      </c>
+      <c r="I147">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148">
+        <v>1</v>
+      </c>
+      <c r="B148">
+        <v>3.0333</v>
+      </c>
+      <c r="C148">
+        <v>120</v>
+      </c>
+      <c r="D148">
+        <v>150</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>250</v>
+      </c>
+      <c r="G148">
+        <v>112</v>
+      </c>
+      <c r="H148">
+        <v>0.16</v>
+      </c>
+      <c r="I148">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149">
+        <v>2</v>
+      </c>
+      <c r="B149">
+        <v>3.6652</v>
+      </c>
+      <c r="C149">
+        <v>120</v>
+      </c>
+      <c r="D149">
+        <v>150</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>250</v>
+      </c>
+      <c r="G149">
+        <v>112</v>
+      </c>
+      <c r="H149">
+        <v>0.16</v>
+      </c>
+      <c r="I149">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150">
+        <v>3</v>
+      </c>
+      <c r="B150">
+        <v>4.1805</v>
+      </c>
+      <c r="C150">
+        <v>120</v>
+      </c>
+      <c r="D150">
+        <v>150</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>250</v>
+      </c>
+      <c r="G150">
+        <v>112</v>
+      </c>
+      <c r="H150">
+        <v>0.16</v>
+      </c>
+      <c r="I150">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151">
+        <v>4</v>
+      </c>
+      <c r="B151">
+        <v>4.5676</v>
+      </c>
+      <c r="C151">
+        <v>120</v>
+      </c>
+      <c r="D151">
+        <v>150</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>250</v>
+      </c>
+      <c r="G151">
+        <v>112</v>
+      </c>
+      <c r="H151">
+        <v>0.16</v>
+      </c>
+      <c r="I151">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152">
+        <v>5</v>
+      </c>
+      <c r="B152">
+        <v>4.496</v>
+      </c>
+      <c r="C152">
+        <v>120</v>
+      </c>
+      <c r="D152">
+        <v>150</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>250</v>
+      </c>
+      <c r="G152">
+        <v>112</v>
+      </c>
+      <c r="H152">
+        <v>0.16</v>
+      </c>
+      <c r="I152">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153">
+        <v>6</v>
+      </c>
+      <c r="B153">
+        <v>3.5532</v>
+      </c>
+      <c r="C153">
+        <v>120</v>
+      </c>
+      <c r="D153">
+        <v>150</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>250</v>
+      </c>
+      <c r="G153">
+        <v>112</v>
+      </c>
+      <c r="H153">
+        <v>0.16</v>
+      </c>
+      <c r="I153">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154">
+        <v>7</v>
+      </c>
+      <c r="B154">
+        <v>2.7618</v>
+      </c>
+      <c r="C154">
+        <v>120</v>
+      </c>
+      <c r="D154">
+        <v>150</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>250</v>
+      </c>
+      <c r="G154">
+        <v>112</v>
+      </c>
+      <c r="H154">
+        <v>0.16</v>
+      </c>
+      <c r="I154">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155">
+        <v>8</v>
+      </c>
+      <c r="B155">
+        <v>1.7971</v>
+      </c>
+      <c r="C155">
+        <v>120</v>
+      </c>
+      <c r="D155">
+        <v>150</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>250</v>
+      </c>
+      <c r="G155">
+        <v>112</v>
+      </c>
+      <c r="H155">
+        <v>0.16</v>
+      </c>
+      <c r="I155">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156">
+        <v>9</v>
+      </c>
+      <c r="B156">
+        <v>-0.6822600000000001</v>
+      </c>
+      <c r="C156">
+        <v>120</v>
+      </c>
+      <c r="D156">
+        <v>150</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>250</v>
+      </c>
+      <c r="G156">
+        <v>112</v>
+      </c>
+      <c r="H156">
+        <v>0.16</v>
+      </c>
+      <c r="I156">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157">
+        <v>10</v>
+      </c>
+      <c r="B157">
+        <v>-2.1393</v>
+      </c>
+      <c r="C157">
+        <v>120</v>
+      </c>
+      <c r="D157">
+        <v>150</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>250</v>
+      </c>
+      <c r="G157">
+        <v>112</v>
+      </c>
+      <c r="H157">
+        <v>0.16</v>
+      </c>
+      <c r="I157">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158">
+        <v>-1</v>
+      </c>
+      <c r="B158">
+        <v>1.5098</v>
+      </c>
+      <c r="C158">
+        <v>130</v>
+      </c>
+      <c r="D158">
+        <v>150</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>250</v>
+      </c>
+      <c r="G158">
+        <v>112</v>
+      </c>
+      <c r="H158">
+        <v>0.16</v>
+      </c>
+      <c r="I158">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159">
+        <v>0</v>
+      </c>
+      <c r="B159">
+        <v>2.2885</v>
+      </c>
+      <c r="C159">
+        <v>130</v>
+      </c>
+      <c r="D159">
+        <v>150</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>250</v>
+      </c>
+      <c r="G159">
+        <v>112</v>
+      </c>
+      <c r="H159">
+        <v>0.16</v>
+      </c>
+      <c r="I159">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160">
+        <v>1</v>
+      </c>
+      <c r="B160">
+        <v>3.1163</v>
+      </c>
+      <c r="C160">
+        <v>130</v>
+      </c>
+      <c r="D160">
+        <v>150</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>250</v>
+      </c>
+      <c r="G160">
+        <v>112</v>
+      </c>
+      <c r="H160">
+        <v>0.16</v>
+      </c>
+      <c r="I160">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161">
+        <v>2</v>
+      </c>
+      <c r="B161">
+        <v>3.5777</v>
+      </c>
+      <c r="C161">
+        <v>130</v>
+      </c>
+      <c r="D161">
+        <v>150</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>250</v>
+      </c>
+      <c r="G161">
+        <v>112</v>
+      </c>
+      <c r="H161">
+        <v>0.16</v>
+      </c>
+      <c r="I161">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162">
+        <v>3</v>
+      </c>
+      <c r="B162">
+        <v>4.2072</v>
+      </c>
+      <c r="C162">
+        <v>130</v>
+      </c>
+      <c r="D162">
+        <v>150</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>250</v>
+      </c>
+      <c r="G162">
+        <v>112</v>
+      </c>
+      <c r="H162">
+        <v>0.16</v>
+      </c>
+      <c r="I162">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163">
+        <v>4</v>
+      </c>
+      <c r="B163">
+        <v>4.4478</v>
+      </c>
+      <c r="C163">
+        <v>130</v>
+      </c>
+      <c r="D163">
+        <v>150</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>250</v>
+      </c>
+      <c r="G163">
+        <v>112</v>
+      </c>
+      <c r="H163">
+        <v>0.16</v>
+      </c>
+      <c r="I163">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164">
+        <v>5</v>
+      </c>
+      <c r="B164">
+        <v>4.5582</v>
+      </c>
+      <c r="C164">
+        <v>130</v>
+      </c>
+      <c r="D164">
+        <v>150</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>250</v>
+      </c>
+      <c r="G164">
+        <v>112</v>
+      </c>
+      <c r="H164">
+        <v>0.16</v>
+      </c>
+      <c r="I164">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165">
+        <v>6</v>
+      </c>
+      <c r="B165">
+        <v>3.99</v>
+      </c>
+      <c r="C165">
+        <v>130</v>
+      </c>
+      <c r="D165">
+        <v>150</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>250</v>
+      </c>
+      <c r="G165">
+        <v>112</v>
+      </c>
+      <c r="H165">
+        <v>0.16</v>
+      </c>
+      <c r="I165">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166">
+        <v>7</v>
+      </c>
+      <c r="B166">
+        <v>2.5328</v>
+      </c>
+      <c r="C166">
+        <v>130</v>
+      </c>
+      <c r="D166">
+        <v>150</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>250</v>
+      </c>
+      <c r="G166">
+        <v>112</v>
+      </c>
+      <c r="H166">
+        <v>0.16</v>
+      </c>
+      <c r="I166">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167">
+        <v>8</v>
+      </c>
+      <c r="B167">
+        <v>1.2166</v>
+      </c>
+      <c r="C167">
+        <v>130</v>
+      </c>
+      <c r="D167">
+        <v>150</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>250</v>
+      </c>
+      <c r="G167">
+        <v>112</v>
+      </c>
+      <c r="H167">
+        <v>0.16</v>
+      </c>
+      <c r="I167">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168">
+        <v>9</v>
+      </c>
+      <c r="B168">
+        <v>-0.71953</v>
+      </c>
+      <c r="C168">
+        <v>130</v>
+      </c>
+      <c r="D168">
+        <v>150</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>250</v>
+      </c>
+      <c r="G168">
+        <v>112</v>
+      </c>
+      <c r="H168">
+        <v>0.16</v>
+      </c>
+      <c r="I168">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169">
+        <v>10</v>
+      </c>
+      <c r="B169">
+        <v>-2.9815</v>
+      </c>
+      <c r="C169">
+        <v>130</v>
+      </c>
+      <c r="D169">
+        <v>150</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>250</v>
+      </c>
+      <c r="G169">
+        <v>112</v>
+      </c>
+      <c r="H169">
+        <v>0.16</v>
+      </c>
+      <c r="I169">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170">
+        <v>-1</v>
+      </c>
+      <c r="B170">
+        <v>1.4616</v>
+      </c>
+      <c r="C170">
+        <v>140</v>
+      </c>
+      <c r="D170">
+        <v>150</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>250</v>
+      </c>
+      <c r="G170">
+        <v>112</v>
+      </c>
+      <c r="H170">
+        <v>0.16</v>
+      </c>
+      <c r="I170">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171">
+        <v>0</v>
+      </c>
+      <c r="B171">
+        <v>2.2168</v>
+      </c>
+      <c r="C171">
+        <v>140</v>
+      </c>
+      <c r="D171">
+        <v>150</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>250</v>
+      </c>
+      <c r="G171">
+        <v>112</v>
+      </c>
+      <c r="H171">
+        <v>0.16</v>
+      </c>
+      <c r="I171">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172">
+        <v>1</v>
+      </c>
+      <c r="B172">
+        <v>2.9635</v>
+      </c>
+      <c r="C172">
+        <v>140</v>
+      </c>
+      <c r="D172">
+        <v>150</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <v>250</v>
+      </c>
+      <c r="G172">
+        <v>112</v>
+      </c>
+      <c r="H172">
+        <v>0.16</v>
+      </c>
+      <c r="I172">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173">
+        <v>2</v>
+      </c>
+      <c r="B173">
+        <v>3.5606</v>
+      </c>
+      <c r="C173">
+        <v>140</v>
+      </c>
+      <c r="D173">
+        <v>150</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>250</v>
+      </c>
+      <c r="G173">
+        <v>112</v>
+      </c>
+      <c r="H173">
+        <v>0.16</v>
+      </c>
+      <c r="I173">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174">
+        <v>3</v>
+      </c>
+      <c r="B174">
+        <v>4.0829</v>
+      </c>
+      <c r="C174">
+        <v>140</v>
+      </c>
+      <c r="D174">
+        <v>150</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>250</v>
+      </c>
+      <c r="G174">
+        <v>112</v>
+      </c>
+      <c r="H174">
+        <v>0.16</v>
+      </c>
+      <c r="I174">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175">
+        <v>4</v>
+      </c>
+      <c r="B175">
+        <v>4.4615</v>
+      </c>
+      <c r="C175">
+        <v>140</v>
+      </c>
+      <c r="D175">
+        <v>150</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>250</v>
+      </c>
+      <c r="G175">
+        <v>112</v>
+      </c>
+      <c r="H175">
+        <v>0.16</v>
+      </c>
+      <c r="I175">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176">
+        <v>5</v>
+      </c>
+      <c r="B176">
+        <v>4.376</v>
+      </c>
+      <c r="C176">
+        <v>140</v>
+      </c>
+      <c r="D176">
+        <v>150</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>250</v>
+      </c>
+      <c r="G176">
+        <v>112</v>
+      </c>
+      <c r="H176">
+        <v>0.16</v>
+      </c>
+      <c r="I176">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177">
+        <v>6</v>
+      </c>
+      <c r="B177">
+        <v>4.0353</v>
+      </c>
+      <c r="C177">
+        <v>140</v>
+      </c>
+      <c r="D177">
+        <v>150</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>250</v>
+      </c>
+      <c r="G177">
+        <v>112</v>
+      </c>
+      <c r="H177">
+        <v>0.16</v>
+      </c>
+      <c r="I177">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178">
+        <v>7</v>
+      </c>
+      <c r="B178">
+        <v>3.1444</v>
+      </c>
+      <c r="C178">
+        <v>140</v>
+      </c>
+      <c r="D178">
+        <v>150</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>250</v>
+      </c>
+      <c r="G178">
+        <v>112</v>
+      </c>
+      <c r="H178">
+        <v>0.16</v>
+      </c>
+      <c r="I178">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179">
+        <v>8</v>
+      </c>
+      <c r="B179">
+        <v>1.2513</v>
+      </c>
+      <c r="C179">
+        <v>140</v>
+      </c>
+      <c r="D179">
+        <v>150</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>250</v>
+      </c>
+      <c r="G179">
+        <v>112</v>
+      </c>
+      <c r="H179">
+        <v>0.16</v>
+      </c>
+      <c r="I179">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
+      <c r="A180">
+        <v>9</v>
+      </c>
+      <c r="B180">
+        <v>-0.32684</v>
+      </c>
+      <c r="C180">
+        <v>140</v>
+      </c>
+      <c r="D180">
+        <v>150</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>250</v>
+      </c>
+      <c r="G180">
+        <v>112</v>
+      </c>
+      <c r="H180">
+        <v>0.16</v>
+      </c>
+      <c r="I180">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181">
+        <v>10</v>
+      </c>
+      <c r="B181">
+        <v>-3.6035</v>
+      </c>
+      <c r="C181">
+        <v>140</v>
+      </c>
+      <c r="D181">
+        <v>150</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>250</v>
+      </c>
+      <c r="G181">
+        <v>112</v>
+      </c>
+      <c r="H181">
+        <v>0.16</v>
+      </c>
+      <c r="I181">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182">
+        <v>-1</v>
+      </c>
+      <c r="B182">
+        <v>1.4622</v>
+      </c>
+      <c r="C182">
+        <v>150</v>
+      </c>
+      <c r="D182">
+        <v>150</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>250</v>
+      </c>
+      <c r="G182">
+        <v>112</v>
+      </c>
+      <c r="H182">
+        <v>0.16</v>
+      </c>
+      <c r="I182">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183">
+        <v>0</v>
+      </c>
+      <c r="B183">
+        <v>2.2101</v>
+      </c>
+      <c r="C183">
+        <v>150</v>
+      </c>
+      <c r="D183">
+        <v>150</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>250</v>
+      </c>
+      <c r="G183">
+        <v>112</v>
+      </c>
+      <c r="H183">
+        <v>0.16</v>
+      </c>
+      <c r="I183">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184">
+        <v>1</v>
+      </c>
+      <c r="B184">
+        <v>2.8848</v>
+      </c>
+      <c r="C184">
+        <v>150</v>
+      </c>
+      <c r="D184">
+        <v>150</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>250</v>
+      </c>
+      <c r="G184">
+        <v>112</v>
+      </c>
+      <c r="H184">
+        <v>0.16</v>
+      </c>
+      <c r="I184">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185">
+        <v>2</v>
+      </c>
+      <c r="B185">
+        <v>3.6072</v>
+      </c>
+      <c r="C185">
+        <v>150</v>
+      </c>
+      <c r="D185">
+        <v>150</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>250</v>
+      </c>
+      <c r="G185">
+        <v>112</v>
+      </c>
+      <c r="H185">
+        <v>0.16</v>
+      </c>
+      <c r="I185">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186">
+        <v>3</v>
+      </c>
+      <c r="B186">
+        <v>4.12</v>
+      </c>
+      <c r="C186">
+        <v>150</v>
+      </c>
+      <c r="D186">
+        <v>150</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>250</v>
+      </c>
+      <c r="G186">
+        <v>112</v>
+      </c>
+      <c r="H186">
+        <v>0.16</v>
+      </c>
+      <c r="I186">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187">
+        <v>4</v>
+      </c>
+      <c r="B187">
+        <v>4.4383</v>
+      </c>
+      <c r="C187">
+        <v>150</v>
+      </c>
+      <c r="D187">
+        <v>150</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>250</v>
+      </c>
+      <c r="G187">
+        <v>112</v>
+      </c>
+      <c r="H187">
+        <v>0.16</v>
+      </c>
+      <c r="I187">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188">
+        <v>5</v>
+      </c>
+      <c r="B188">
+        <v>4.4235</v>
+      </c>
+      <c r="C188">
+        <v>150</v>
+      </c>
+      <c r="D188">
+        <v>150</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>250</v>
+      </c>
+      <c r="G188">
+        <v>112</v>
+      </c>
+      <c r="H188">
+        <v>0.16</v>
+      </c>
+      <c r="I188">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189">
+        <v>6</v>
+      </c>
+      <c r="B189">
+        <v>3.9367</v>
+      </c>
+      <c r="C189">
+        <v>150</v>
+      </c>
+      <c r="D189">
+        <v>150</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>250</v>
+      </c>
+      <c r="G189">
+        <v>112</v>
+      </c>
+      <c r="H189">
+        <v>0.16</v>
+      </c>
+      <c r="I189">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190">
+        <v>7</v>
+      </c>
+      <c r="B190">
+        <v>2.9321</v>
+      </c>
+      <c r="C190">
+        <v>150</v>
+      </c>
+      <c r="D190">
+        <v>150</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>250</v>
+      </c>
+      <c r="G190">
+        <v>112</v>
+      </c>
+      <c r="H190">
+        <v>0.16</v>
+      </c>
+      <c r="I190">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191">
+        <v>8</v>
+      </c>
+      <c r="B191">
+        <v>1.5646</v>
+      </c>
+      <c r="C191">
+        <v>150</v>
+      </c>
+      <c r="D191">
+        <v>150</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>250</v>
+      </c>
+      <c r="G191">
+        <v>112</v>
+      </c>
+      <c r="H191">
+        <v>0.16</v>
+      </c>
+      <c r="I191">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="A192">
+        <v>9</v>
+      </c>
+      <c r="B192">
+        <v>-0.50166</v>
+      </c>
+      <c r="C192">
+        <v>150</v>
+      </c>
+      <c r="D192">
+        <v>150</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>250</v>
+      </c>
+      <c r="G192">
+        <v>112</v>
+      </c>
+      <c r="H192">
+        <v>0.16</v>
+      </c>
+      <c r="I192">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
+      <c r="A193">
+        <v>10</v>
+      </c>
+      <c r="B193">
+        <v>-4.1279</v>
+      </c>
+      <c r="C193">
+        <v>150</v>
+      </c>
+      <c r="D193">
+        <v>150</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>250</v>
+      </c>
+      <c r="G193">
+        <v>112</v>
+      </c>
+      <c r="H193">
+        <v>0.16</v>
+      </c>
+      <c r="I193">
+        <v>0.158</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
